--- a/Doc/Planning_EXP_plume.xlsx
+++ b/Doc/Planning_EXP_plume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxcoppin/Documents/Projet/Exp_RB/Doc_RB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A556684A-623A-FE45-A2C3-2BD0960BFFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E9B7F3-CF12-8144-BD2B-66FB7047A184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="76800" windowHeight="43200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="22320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experience" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="371">
   <si>
     <t xml:space="preserve">Config KP </t>
   </si>
@@ -1238,6 +1238,9 @@
   </si>
   <si>
     <t>Temp</t>
+  </si>
+  <si>
+    <t>0.26175</t>
   </si>
 </sst>
 </file>
@@ -1657,41 +1660,11 @@
   <dxfs count="102">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1897,41 +1870,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1997,181 +1940,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2237,6 +2010,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2297,6 +2080,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2312,6 +2105,216 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2562,6 +2565,19 @@
     <dxf>
       <font>
         <sz val="12"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2673,19 +2689,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11321,10 +11324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="86" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12441,7 +12444,7 @@
         <v>40</v>
       </c>
       <c r="I24" t="e">
-        <f>SQRT(9.81*(0.002*(H24-G24))/F24*100)</f>
+        <f t="shared" ref="I24:I37" si="0">9.81*(0.0002*(H24-G24))/(F24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J24">
@@ -12511,7 +12514,7 @@
         <v>40</v>
       </c>
       <c r="I25" t="e">
-        <f t="shared" ref="I25:I37" si="0">SQRT(9.81*(0.002*(H25-G25))/F25*100)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="J25">
@@ -13154,7 +13157,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>0.73149908345185854</v>
+        <v>5.3509090909090922E-4</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -13227,7 +13230,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>0.99045444115315073</v>
+        <v>9.810000000000001E-4</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -13441,17 +13444,17 @@
         <v>274</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="G38">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38:I39" si="6">SQRT(9.81*(0.002*(H38-G38))/F38*100)</f>
-        <v>1.262586630691138</v>
+        <f>9.81*(0.0002*(H38-G38))/(F38)</f>
+        <v>0.12262500000000001</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -13516,6 +13519,9 @@
       <c r="E39" t="s">
         <v>182</v>
       </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
       <c r="G39" t="s">
         <v>40</v>
       </c>
@@ -13523,7 +13529,7 @@
         <v>40</v>
       </c>
       <c r="I39" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I39:I57" si="6">9.81*(0.0002*(H39-G39))/(F39)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J39">
@@ -13593,7 +13599,7 @@
         <v>40</v>
       </c>
       <c r="I40" t="e">
-        <f t="shared" ref="I40:I42" si="7">SQRT(9.81*(0.002*(H40-G40))/F40*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J40">
@@ -13603,7 +13609,7 @@
         <v>40</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40:L41" si="8">IF(J40=0, ,2*(2*PI()/J40))</f>
+        <f t="shared" ref="L40:L41" si="7">IF(J40=0, ,2*(2*PI()/J40))</f>
         <v>0.31415926535897931</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -13669,8 +13675,8 @@
         <v>35</v>
       </c>
       <c r="I41">
-        <f t="shared" si="7"/>
-        <v>0.84042846215487021</v>
+        <f t="shared" si="6"/>
+        <v>7.0632000000000019E-4</v>
       </c>
       <c r="J41">
         <v>60</v>
@@ -13679,7 +13685,7 @@
         <v>60</v>
       </c>
       <c r="L41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.20943951023931953</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -13745,8 +13751,8 @@
         <v>32</v>
       </c>
       <c r="I42">
-        <f t="shared" si="7"/>
-        <v>0.97044319771947496</v>
+        <f t="shared" si="6"/>
+        <v>9.4176000000000014E-4</v>
       </c>
       <c r="J42">
         <v>60</v>
@@ -13755,7 +13761,7 @@
         <v>60</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:L43" si="9">IF(J42=0, ,2*(2*PI()/J42))</f>
+        <f t="shared" ref="L42:L43" si="8">IF(J42=0, ,2*(2*PI()/J42))</f>
         <v>0.20943951023931953</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -13821,8 +13827,8 @@
         <v>32</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43" si="10">SQRT(9.81*(0.002*(H43-G43))/F43*100)</f>
-        <v>0.82017419752496135</v>
+        <f t="shared" si="6"/>
+        <v>6.7268571428571436E-4</v>
       </c>
       <c r="J43">
         <v>120</v>
@@ -13831,7 +13837,7 @@
         <v>120</v>
       </c>
       <c r="L43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.10471975511965977</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -13897,7 +13903,7 @@
         <v>312</v>
       </c>
       <c r="I44" t="e">
-        <f t="shared" ref="I44" si="11">SQRT(9.81*(0.002*(H44-G44))/F44*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J44">
@@ -13907,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44" si="12">IF(J44=0, ,2*(2*PI()/J44))</f>
+        <f t="shared" ref="L44" si="9">IF(J44=0, ,2*(2*PI()/J44))</f>
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -13973,7 +13979,7 @@
         <v>312</v>
       </c>
       <c r="I45" t="e">
-        <f t="shared" ref="I45" si="13">SQRT(9.81*(0.002*(H45-G45))/F45*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J45">
@@ -13983,7 +13989,7 @@
         <v>60</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45" si="14">IF(J45=0, ,2*(2*PI()/J45))</f>
+        <f t="shared" ref="L45" si="10">IF(J45=0, ,2*(2*PI()/J45))</f>
         <v>0.20943951023931953</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -14045,6 +14051,10 @@
       <c r="H46" t="s">
         <v>317</v>
       </c>
+      <c r="I46" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="J46">
         <v>0</v>
       </c>
@@ -14052,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46:L47" si="15">IF(J46=0, ,2*(2*PI()/J46))</f>
+        <f t="shared" ref="L46:L47" si="11">IF(J46=0, ,2*(2*PI()/J46))</f>
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -14112,7 +14122,7 @@
         <v>285</v>
       </c>
       <c r="I47" t="e">
-        <f t="shared" ref="I47" si="16">SQRT(9.81*(0.002*(H47-G47))/F47*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J47">
@@ -14122,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -14188,7 +14198,7 @@
         <v>285</v>
       </c>
       <c r="I48" t="e">
-        <f t="shared" ref="I48:I49" si="17">SQRT(9.81*(0.002*(H48-G48))/F48*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J48">
@@ -14198,7 +14208,7 @@
         <v>40</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48:L49" si="18">IF(J48=0, ,2*(2*PI()/J48))</f>
+        <f t="shared" ref="L48:L49" si="12">IF(J48=0, ,2*(2*PI()/J48))</f>
         <v>0.31415926535897931</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -14264,7 +14274,7 @@
         <v>285</v>
       </c>
       <c r="I49" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J49">
@@ -14274,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -14340,7 +14350,7 @@
         <v>285</v>
       </c>
       <c r="I50" t="e">
-        <f t="shared" ref="I50" si="19">SQRT(9.81*(0.002*(H50-G50))/F50*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J50">
@@ -14350,7 +14360,7 @@
         <v>60</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50" si="20">IF(J50=0, ,2*(2*PI()/J50))</f>
+        <f t="shared" ref="L50" si="13">IF(J50=0, ,2*(2*PI()/J50))</f>
         <v>0.20943951023931953</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -14413,7 +14423,7 @@
         <v>285</v>
       </c>
       <c r="I51" t="e">
-        <f t="shared" ref="I51" si="21">SQRT(9.81*(0.002*(H51-G51))/F51*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J51">
@@ -14423,7 +14433,7 @@
         <v>53</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51" si="22">IF(J51=0, ,2*(2*PI()/J51))</f>
+        <f t="shared" ref="L51" si="14">IF(J51=0, ,2*(2*PI()/J51))</f>
         <v>0.20943951023931953</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -14489,7 +14499,7 @@
         <v>285</v>
       </c>
       <c r="I52" t="e">
-        <f t="shared" ref="I52" si="23">SQRT(9.81*(0.002*(H52-G52))/F52*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J52">
@@ -14499,7 +14509,7 @@
         <v>455</v>
       </c>
       <c r="L52">
-        <f t="shared" ref="L52" si="24">IF(J52=0, ,2*(2*PI()/J52))</f>
+        <f t="shared" ref="L52" si="15">IF(J52=0, ,2*(2*PI()/J52))</f>
         <v>0</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -14562,7 +14572,7 @@
         <v>285</v>
       </c>
       <c r="I53" t="e">
-        <f t="shared" ref="I53" si="25">SQRT(9.81*(0.002*(H53-G53))/F53*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J53">
@@ -14572,7 +14582,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53" si="26">IF(J53=0, ,2*(2*PI()/J53))</f>
+        <f t="shared" ref="L53" si="16">IF(J53=0, ,2*(2*PI()/J53))</f>
         <v>0.50265482457436694</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -14635,7 +14645,7 @@
         <v>285</v>
       </c>
       <c r="I54" t="e">
-        <f t="shared" ref="I54" si="27">SQRT(9.81*(0.002*(H54-G54))/F54*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J54">
@@ -14645,7 +14655,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" ref="L54" si="28">IF(J54=0, ,2*(2*PI()/J54))</f>
+        <f t="shared" ref="L54" si="17">IF(J54=0, ,2*(2*PI()/J54))</f>
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -14708,7 +14718,7 @@
         <v>40</v>
       </c>
       <c r="I55" t="e">
-        <f t="shared" ref="I55" si="29">SQRT(9.81*(0.002*(H55-G55))/F55*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J55">
@@ -14718,7 +14728,7 @@
         <v>40</v>
       </c>
       <c r="L55">
-        <f t="shared" ref="L55" si="30">IF(J55=0, ,2*(2*PI()/J55))</f>
+        <f t="shared" ref="L55" si="18">IF(J55=0, ,2*(2*PI()/J55))</f>
         <v>0.31415926535897931</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -14781,7 +14791,7 @@
         <v>40</v>
       </c>
       <c r="I56" t="e">
-        <f t="shared" ref="I56" si="31">SQRT(9.81*(0.002*(H56-G56))/F56*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J56">
@@ -14791,7 +14801,7 @@
         <v>60</v>
       </c>
       <c r="L56">
-        <f t="shared" ref="L56" si="32">IF(J56=0, ,2*(2*PI()/J56))</f>
+        <f t="shared" ref="L56" si="19">IF(J56=0, ,2*(2*PI()/J56))</f>
         <v>0.20943951023931953</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -14854,7 +14864,7 @@
         <v>40</v>
       </c>
       <c r="I57" t="e">
-        <f t="shared" ref="I57" si="33">SQRT(9.81*(0.002*(H57-G57))/F57*100)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J57">
@@ -14864,7 +14874,7 @@
         <v>60</v>
       </c>
       <c r="L57">
-        <f t="shared" ref="L57" si="34">IF(J57=0, ,2*(2*PI()/J57))</f>
+        <f t="shared" ref="L57" si="20">IF(J57=0, ,2*(2*PI()/J57))</f>
         <v>0.20943951023931953</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -14902,12 +14912,6 @@
       </c>
       <c r="Y57" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C59">
-        <f>94-44.5</f>
-        <v>49.5</v>
       </c>
     </row>
   </sheetData>
@@ -14931,43 +14935,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:O57">
-    <cfRule type="containsText" dxfId="97" priority="8" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",O24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="8" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",O24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="7" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",O24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24:R57">
-    <cfRule type="containsText" dxfId="95" priority="6" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="95" priority="5" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",R24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="6" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",R24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="5" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",R24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30">
-    <cfRule type="containsText" dxfId="93" priority="154" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="93" priority="153" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",U30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="154" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",U30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="153" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",U30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33:U35">
-    <cfRule type="containsText" dxfId="91" priority="140" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="91" priority="139" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",U33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="140" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",U33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="139" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",U33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37:U57">
-    <cfRule type="containsText" dxfId="89" priority="2" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",U37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",U37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="1" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",U37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -17219,8 +17223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AB67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17391,6 +17395,12 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1.38E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>370</v>
+      </c>
       <c r="H8">
         <f>0.05235/2</f>
         <v>2.6175E-2</v>
@@ -17439,11 +17449,11 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:G18" si="0">IF(E10=0, 2*PI()*(1/F10),2*PI()*(1/F10-1/E10))</f>
-        <v>5.2359877559829883E-2</v>
+        <v>2.6179938779914941E-2</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -17476,11 +17486,11 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" ref="Q10:Q18" si="3">(N10*G10)*100</f>
-        <v>23.561944901923447</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="R10">
         <f>Tableau2[[#This Row],[U(cm/s]]/20</f>
-        <v>1.1780972450961724</v>
+        <v>0.58904862254808621</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>41</v>
@@ -17518,7 +17528,7 @@
       </c>
       <c r="AB10">
         <f>ABS(Tableau2[[#This Row],[U(cm/s]]/100)/SQRT(Tableau2[[#This Row],[D omega]]*(10^(-6)))</f>
-        <v>1029.70263697174</v>
+        <v>728.10971720838711</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -17901,14 +17911,14 @@
         <v>47</v>
       </c>
       <c r="E15">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>5.2359877559829876E-2</v>
+        <v>1.3830911053539967E-2</v>
       </c>
       <c r="H15">
         <v>50</v>
@@ -17921,7 +17931,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>0.15707963267948966</v>
+        <v>0.20943951023931953</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -17941,11 +17951,11 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="3"/>
-        <v>23.561944901923443</v>
+        <v>6.2239099740929849</v>
       </c>
       <c r="R15">
         <f>Tableau2[[#This Row],[U(cm/s]]/20</f>
-        <v>1.1780972450961722</v>
+        <v>0.31119549870464924</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>45</v>
@@ -17959,19 +17969,19 @@
       </c>
       <c r="V15">
         <f t="shared" si="5"/>
-        <v>38.197186342054884</v>
+        <v>28.647889756541161</v>
       </c>
       <c r="W15">
         <f t="shared" si="6"/>
-        <v>2.2499999999999996</v>
+        <v>0.44575471698113195</v>
       </c>
       <c r="X15">
         <f t="shared" si="7"/>
-        <v>9.4499999999999993</v>
+        <v>1.8721698113207543</v>
       </c>
       <c r="Y15">
         <f t="shared" si="8"/>
-        <v>1.7954999999999999</v>
+        <v>0.35571226415094331</v>
       </c>
       <c r="Z15">
         <f t="shared" si="9"/>
@@ -17979,11 +17989,11 @@
       </c>
       <c r="AA15">
         <f t="shared" si="10"/>
-        <v>0.29999999999999993</v>
+        <v>5.9433962264150937E-2</v>
       </c>
       <c r="AB15">
         <f>ABS(Tableau2[[#This Row],[U(cm/s]]/100)/SQRT(Tableau2[[#This Row],[D omega]]*(10^(-6)))</f>
-        <v>1029.70263697174</v>
+        <v>529.22202224981561</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -18090,11 +18100,11 @@
         <v>120</v>
       </c>
       <c r="F17">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>5.2359877559829883E-2</v>
+        <v>2.6179938779914948E-2</v>
       </c>
       <c r="H17">
         <v>50</v>
@@ -18127,11 +18137,11 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="3"/>
-        <v>23.561944901923447</v>
+        <v>11.780972450961727</v>
       </c>
       <c r="R17">
         <f>Tableau2[[#This Row],[U(cm/s]]/20</f>
-        <v>1.1780972450961724</v>
+        <v>0.58904862254808632</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>45</v>
@@ -18149,15 +18159,15 @@
       </c>
       <c r="W17">
         <f t="shared" si="6"/>
-        <v>3.375</v>
+        <v>1.6875000000000004</v>
       </c>
       <c r="X17">
         <f t="shared" si="7"/>
-        <v>14.175000000000001</v>
+        <v>7.0875000000000012</v>
       </c>
       <c r="Y17">
         <f t="shared" si="8"/>
-        <v>2.6932500000000004</v>
+        <v>1.3466250000000002</v>
       </c>
       <c r="Z17">
         <f t="shared" si="9"/>
@@ -18165,11 +18175,11 @@
       </c>
       <c r="AA17">
         <f t="shared" si="10"/>
-        <v>0.45000000000000007</v>
+        <v>0.22500000000000006</v>
       </c>
       <c r="AB17">
         <f>ABS(Tableau2[[#This Row],[U(cm/s]]/100)/SQRT(Tableau2[[#This Row],[D omega]]*(10^(-6)))</f>
-        <v>1029.70263697174</v>
+        <v>728.10971720838722</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
@@ -20864,11 +20874,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="65" priority="95" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="65" priority="94" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",B29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="95" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",B29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="94" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
@@ -20896,27 +20906,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:AB43">
-    <cfRule type="containsText" dxfId="57" priority="53" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="57" priority="52" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",B43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="53" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",B43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="52" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",B43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 C33">
-    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="55" priority="42" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",C23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25 C35">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="53" priority="50" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",C25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
@@ -20936,19 +20946,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="containsText" dxfId="47" priority="73" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="47" priority="72" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",C52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="73" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",C52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="72" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:AB33">
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="45" priority="26" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="27" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:AB35">
@@ -20968,11 +20978,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:AB47">
-    <cfRule type="containsText" dxfId="39" priority="61" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="39" priority="60" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="61" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="60" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:AB52">
@@ -20984,11 +20994,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O18">
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",O10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",O10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",O10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20 O22">
@@ -21016,11 +21026,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",O28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",O28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",O28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
@@ -21032,83 +21042,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="containsText" dxfId="23" priority="45" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="23" priority="44" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",O32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",O32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="44" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",O32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="containsText" dxfId="21" priority="47" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="21" priority="46" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",O34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",O34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="46" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",O34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="containsText" dxfId="19" priority="49" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="19" priority="48" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",O36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="49" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",O36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="48" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",O36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="17" priority="38" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",P17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",P17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",P17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",P20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",P20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",P20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:P42">
-    <cfRule type="containsText" dxfId="13" priority="65" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="13" priority="64" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",P39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="65" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",P39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="64" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",P39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45:P46">
-    <cfRule type="containsText" dxfId="11" priority="69" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="11" priority="68" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",P45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="69" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",P45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="68" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",P45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:P51">
-    <cfRule type="containsText" dxfId="9" priority="83" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="9" priority="82" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",P49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="83" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",P49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="82" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53">
-    <cfRule type="containsText" dxfId="7" priority="89" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="7" priority="88" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",P53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="89" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",P53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="88" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",P53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q16 Q17:Q18 Q20 Q22 Q24 Q26 Q28 Q30 Q32 Q34 Q36 Q38:Q42 Q44:Q46 Q48:Q51 Q53:Q55">
-    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",P10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",P10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",P10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
@@ -21120,11 +21130,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S12">
-    <cfRule type="containsText" dxfId="1" priority="23" operator="containsText" text="OUI">
+    <cfRule type="containsText" dxfId="1" priority="22" operator="containsText" text="NON">
+      <formula>NOT(ISERROR(SEARCH("NON",S10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="23" operator="containsText" text="OUI">
       <formula>NOT(ISERROR(SEARCH("OUI",S10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="22" operator="containsText" text="NON">
-      <formula>NOT(ISERROR(SEARCH("NON",S10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
